--- a/docs/API_Intro_V3.xlsx
+++ b/docs/API_Intro_V3.xlsx
@@ -795,8 +795,33 @@
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
+ "search_str": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "friends": [
+ { "nickname": xxxx,
+      "avatar_url": xxxx,
+      "mobile": xxx,
+ },{}
+ ]
+ "circle": [
+ { "circlename": xxx,
+      "circle_url": xxx,
+ }, {}
+ ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
  /* the mobile that want to add */
- "add friend": xxxx, 
+ "friend_mobile": xxxx, 
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -828,7 +853,7 @@
       <t xml:space="preserve">
  "nok": x,
  /* the mobile that want to respone */
- "to friend": xxxx, 
+ "friend_mobile": xxxx, 
 }</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -845,48 +870,23 @@
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
- /* the mobile that want to delete */
- "delete friend": xxxx, 
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- "search_str": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0,
- "friends": [
- { "nickname": xxxx,
-      "avatar_url": xxxx,
-      "mobile": xxx,
- },{}
- ]
- "circle": [
- { "circlename": xxx,
-      "circle_url": xxx,
- }, {}
- ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
  /* the mobile that want to update */
- "update friend": xxxx, 
+ "friend_mobile": xxxx, 
  /* comment to identify friend */
  "comment": xxxx,
  /* group that settle the friend */
  "group": xxxx,
  /* description for friend */
  "description": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the mobile that want to delete */
+ "friend_mobile": xxxx, 
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1020,7 +1020,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1054,12 +1054,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,22 +1253,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1690,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1799,7 +1793,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>97</v>
@@ -1820,7 +1814,7 @@
         <v>92</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>90</v>
@@ -1841,7 +1835,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>95</v>
@@ -1858,7 +1852,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>89</v>
@@ -1866,22 +1860,22 @@
       <c r="G9" s="25"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:9" s="39" customFormat="1" ht="96" customHeight="1">
-      <c r="B10" s="40"/>
-      <c r="C10" s="41" t="s">
+    <row r="10" spans="2:9" s="43" customFormat="1" ht="96" customHeight="1">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="42" t="s">
+      <c r="E10" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="38"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="2:9" ht="83.25" customHeight="1">
       <c r="B11" s="2"/>
@@ -1892,10 +1886,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -2037,12 +2031,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V3.xlsx
+++ b/docs/API_Intro_V3.xlsx
@@ -862,14 +862,6 @@
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
- "mobile_friend_version": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
  /* the mobile that want to update */
  "friend_mobile": xxxx, 
  /* comment to identify friend */
@@ -887,6 +879,14 @@
  "mobile": xxxx,
  /* the mobile that want to delete */
  "friend_mobile": xxxx, 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ "local_friend_version": xxxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1253,22 +1253,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1684,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1835,7 +1835,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>95</v>
@@ -1852,7 +1852,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>89</v>
@@ -1860,22 +1860,22 @@
       <c r="G9" s="25"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:9" s="43" customFormat="1" ht="96" customHeight="1">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40" t="s">
+    <row r="10" spans="2:9" s="42" customFormat="1" ht="96" customHeight="1">
+      <c r="B10" s="38"/>
+      <c r="C10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="2:9" ht="83.25" customHeight="1">
       <c r="B11" s="2"/>
@@ -2031,12 +2031,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V3.xlsx
+++ b/docs/API_Intro_V3.xlsx
@@ -592,12 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Push Message Format：
-msg content： 201
-extras： 发送方用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -888,6 +882,35 @@
  "mobile": xxxx,
  "local_friend_version": xxxx,
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Push Message Format：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>msg content： 202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+extras： 发送方用户名</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1684,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1752,7 +1775,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
@@ -1793,52 +1816,52 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="99.95" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>87</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="173.25" customHeight="1">
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>86</v>
-      </c>
       <c r="E8" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="35"/>
@@ -1846,16 +1869,16 @@
     <row r="9" spans="2:9" ht="96" customHeight="1">
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="E9" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="35"/>
@@ -1863,16 +1886,16 @@
     <row r="10" spans="2:9" s="42" customFormat="1" ht="96" customHeight="1">
       <c r="B10" s="38"/>
       <c r="C10" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>99</v>
-      </c>
       <c r="E10" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="41"/>
@@ -1886,10 +1909,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -2015,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B75" sqref="B74:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2032,7 +2055,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
       <c r="B1" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -2694,7 +2717,7 @@
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V3.xlsx
+++ b/docs/API_Intro_V3.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
   <si>
     <t>check if register</t>
   </si>
@@ -911,6 +911,51 @@
       <t xml:space="preserve">
 extras： 发送方用户名</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIPS Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips/send_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips/get_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the mobile to which send tip */
+ "friend_mobile": xxxx,
+ /* message content */
+ "message": xxxx,
+ /* message create time */
+ "create_time": xxxx,
+ /* audio, photo if exist */
+ "audio_url": xxx,
+ "photo_url": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the message id */
+ "mesg_id": xxx,
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1289,6 +1334,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1393,8 +1441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G13"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -1705,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1918,6 +1966,36 @@
         <v>21</v>
       </c>
       <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="2:9" ht="175.5">
+      <c r="B12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="2:9" ht="81">
+      <c r="B13" s="2"/>
+      <c r="C13" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2054,12 +2132,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V3.xlsx
+++ b/docs/API_Intro_V3.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="115">
   <si>
     <t>check if register</t>
   </si>
@@ -956,6 +956,18 @@
  /* the message id */
  "mesg_id": xxx,
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "status": 0,
+ "mobile": xxx,
+ "message": xxx,
+ "create_time": xxxx,
+ "audio_url": xxx,
+ "photo_url": xxx,
+}
+ </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1768,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1967,7 +1979,7 @@
       </c>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="2:9" ht="175.5">
+    <row r="12" spans="2:9" ht="176.25" thickBot="1">
       <c r="B12" s="2" t="s">
         <v>107</v>
       </c>
@@ -1980,10 +1992,14 @@
       <c r="E12" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="2:9" ht="81">
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="121.5">
       <c r="B13" s="2"/>
       <c r="C13" s="12" t="s">
         <v>111</v>
@@ -1994,8 +2010,12 @@
       <c r="E13" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
